--- a/Data/Processing/2024-02-02/APOLLOHOSP.xlsx
+++ b/Data/Processing/2024-02-02/APOLLOHOSP.xlsx
@@ -622,7 +622,7 @@
         <v>4144.75</v>
       </c>
       <c r="E2">
-        <v>4238.05</v>
+        <v>4238.06</v>
       </c>
       <c r="F2">
         <v>4218.02</v>
@@ -675,7 +675,7 @@
         <v>4306.94</v>
       </c>
       <c r="F3">
-        <v>4238.05</v>
+        <v>4238.06</v>
       </c>
       <c r="G3">
         <v>257669</v>
@@ -693,7 +693,7 @@
         <v>-0.51</v>
       </c>
       <c r="L3">
-        <v>-40.47</v>
+        <v>-40.48</v>
       </c>
       <c r="M3">
         <v>-0.3399999999999999</v>
@@ -2802,7 +2802,7 @@
         <v>1.54</v>
       </c>
       <c r="O45">
-        <v>4355.282727272727</v>
+        <v>4355.282954545455</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>2.06</v>
       </c>
       <c r="O49">
-        <v>4359.547727272728</v>
+        <v>4359.547727272727</v>
       </c>
       <c r="P49">
         <v>1</v>
@@ -3402,7 +3402,7 @@
         <v>2.21</v>
       </c>
       <c r="O57">
-        <v>4346.980681818181</v>
+        <v>4346.980681818182</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>2.13</v>
       </c>
       <c r="O58">
-        <v>4346.863181818182</v>
+        <v>4346.863181818181</v>
       </c>
       <c r="P58">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1.63</v>
       </c>
       <c r="O62">
-        <v>4358.221363636363</v>
+        <v>4358.221363636364</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -4052,7 +4052,7 @@
         <v>2.15</v>
       </c>
       <c r="O70">
-        <v>4388.654318181818</v>
+        <v>4388.654318181819</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>3.88</v>
       </c>
       <c r="O72">
-        <v>4397.906590909091</v>
+        <v>4397.90659090909</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -4202,7 +4202,7 @@
         <v>1.83</v>
       </c>
       <c r="O73">
-        <v>4402.933636363637</v>
+        <v>4402.933636363636</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -4402,7 +4402,7 @@
         <v>1.82</v>
       </c>
       <c r="O77">
-        <v>4427.942272727273</v>
+        <v>4427.942272727272</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -4452,7 +4452,7 @@
         <v>5.56</v>
       </c>
       <c r="O78">
-        <v>4435.066590909091</v>
+        <v>4435.06659090909</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -4552,7 +4552,7 @@
         <v>3.43</v>
       </c>
       <c r="O80">
-        <v>4455.025227272728</v>
+        <v>4455.025227272727</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -4602,7 +4602,7 @@
         <v>4.05</v>
       </c>
       <c r="O81">
-        <v>4469.752500000001</v>
+        <v>4469.7525</v>
       </c>
       <c r="P81">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>1.51</v>
       </c>
       <c r="O82">
-        <v>4483.740227272728</v>
+        <v>4483.740227272727</v>
       </c>
       <c r="P82">
         <v>0</v>
@@ -4852,7 +4852,7 @@
         <v>1.19</v>
       </c>
       <c r="O86">
-        <v>4545.233863636364</v>
+        <v>4545.233863636363</v>
       </c>
       <c r="P86">
         <v>0</v>
@@ -5152,7 +5152,7 @@
         <v>2.43</v>
       </c>
       <c r="O92">
-        <v>4650.339090909091</v>
+        <v>4650.33909090909</v>
       </c>
       <c r="P92">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>1.64</v>
       </c>
       <c r="O96">
-        <v>4718.930681818181</v>
+        <v>4718.930681818182</v>
       </c>
       <c r="P96">
         <v>0</v>
@@ -5552,7 +5552,7 @@
         <v>1.66</v>
       </c>
       <c r="O100">
-        <v>4781.934999999999</v>
+        <v>4781.935</v>
       </c>
       <c r="P100">
         <v>0</v>
@@ -5652,7 +5652,7 @@
         <v>1.42</v>
       </c>
       <c r="O102">
-        <v>4808.56659090909</v>
+        <v>4808.566590909091</v>
       </c>
       <c r="P102">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>1.97</v>
       </c>
       <c r="O110">
-        <v>4918.296363636364</v>
+        <v>4918.296363636363</v>
       </c>
       <c r="P110">
         <v>0</v>
@@ -6402,7 +6402,7 @@
         <v>1.28</v>
       </c>
       <c r="O117">
-        <v>5023.622499999999</v>
+        <v>5023.6225</v>
       </c>
       <c r="P117">
         <v>0</v>
@@ -6452,7 +6452,7 @@
         <v>2.15</v>
       </c>
       <c r="O118">
-        <v>5037.671590909092</v>
+        <v>5037.671590909091</v>
       </c>
       <c r="P118">
         <v>0</v>
@@ -6502,7 +6502,7 @@
         <v>2.35</v>
       </c>
       <c r="O119">
-        <v>5052.357045454546</v>
+        <v>5052.357045454545</v>
       </c>
       <c r="P119">
         <v>0</v>
@@ -6552,7 +6552,7 @@
         <v>3.61</v>
       </c>
       <c r="O120">
-        <v>5069.077272727272</v>
+        <v>5069.077272727273</v>
       </c>
       <c r="P120">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>1.49</v>
       </c>
       <c r="O124">
-        <v>5103.629545454545</v>
+        <v>5103.629545454546</v>
       </c>
       <c r="P124">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>1.44</v>
       </c>
       <c r="O125">
-        <v>5103.924545454545</v>
+        <v>5103.924545454546</v>
       </c>
       <c r="P125">
         <v>0</v>
@@ -6852,7 +6852,7 @@
         <v>1.38</v>
       </c>
       <c r="O126">
-        <v>5105.381136363636</v>
+        <v>5105.381136363637</v>
       </c>
       <c r="P126">
         <v>0</v>
@@ -7052,7 +7052,7 @@
         <v>4.07</v>
       </c>
       <c r="O130">
-        <v>5105.686363636363</v>
+        <v>5105.686363636364</v>
       </c>
       <c r="P130">
         <v>0</v>
@@ -7102,7 +7102,7 @@
         <v>4.06</v>
       </c>
       <c r="O131">
-        <v>5103.329318181818</v>
+        <v>5103.329318181819</v>
       </c>
       <c r="P131">
         <v>0</v>
@@ -7252,7 +7252,7 @@
         <v>1.43</v>
       </c>
       <c r="O134">
-        <v>5092.284545454546</v>
+        <v>5092.284545454545</v>
       </c>
       <c r="P134">
         <v>0</v>
@@ -7852,7 +7852,7 @@
         <v>3.29</v>
       </c>
       <c r="O146">
-        <v>5035.05340909091</v>
+        <v>5035.053409090909</v>
       </c>
       <c r="P146">
         <v>0</v>
@@ -7902,7 +7902,7 @@
         <v>1.8</v>
       </c>
       <c r="O147">
-        <v>5034.253181818182</v>
+        <v>5034.253181818181</v>
       </c>
       <c r="P147">
         <v>1</v>
@@ -8052,7 +8052,7 @@
         <v>2.06</v>
       </c>
       <c r="O150">
-        <v>5024.052727272728</v>
+        <v>5024.052727272727</v>
       </c>
       <c r="P150">
         <v>1</v>
@@ -8252,7 +8252,7 @@
         <v>1.74</v>
       </c>
       <c r="O154">
-        <v>5009.099772727272</v>
+        <v>5009.099772727273</v>
       </c>
       <c r="P154">
         <v>0</v>
@@ -8352,7 +8352,7 @@
         <v>2.59</v>
       </c>
       <c r="O156">
-        <v>5002.705454545455</v>
+        <v>5002.705454545454</v>
       </c>
       <c r="P156">
         <v>1</v>
@@ -8452,7 +8452,7 @@
         <v>1.23</v>
       </c>
       <c r="O158">
-        <v>4994.924318181818</v>
+        <v>4994.924318181817</v>
       </c>
       <c r="P158">
         <v>1</v>
@@ -8652,7 +8652,7 @@
         <v>2.95</v>
       </c>
       <c r="O162">
-        <v>4984.940681818181</v>
+        <v>4984.940681818182</v>
       </c>
       <c r="P162">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>3.17</v>
       </c>
       <c r="O163">
-        <v>4983.39159090909</v>
+        <v>4983.391590909091</v>
       </c>
       <c r="P163">
         <v>0</v>
@@ -8752,7 +8752,7 @@
         <v>1.73</v>
       </c>
       <c r="O164">
-        <v>4978.43340909091</v>
+        <v>4978.433409090909</v>
       </c>
       <c r="P164">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1.05</v>
       </c>
       <c r="O166">
-        <v>4976.328409090908</v>
+        <v>4976.328409090909</v>
       </c>
       <c r="P166">
         <v>0</v>
@@ -8952,7 +8952,7 @@
         <v>1.58</v>
       </c>
       <c r="O168">
-        <v>4979.34840909091</v>
+        <v>4979.348409090909</v>
       </c>
       <c r="P168">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>2.82</v>
       </c>
       <c r="O179">
-        <v>4997.979545454546</v>
+        <v>4997.979545454545</v>
       </c>
       <c r="P179">
         <v>0</v>
@@ -9602,7 +9602,7 @@
         <v>1.75</v>
       </c>
       <c r="O181">
-        <v>4991.735227272728</v>
+        <v>4991.735227272727</v>
       </c>
       <c r="P181">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>1.76</v>
       </c>
       <c r="O182">
-        <v>4989.957954545454</v>
+        <v>4989.957954545455</v>
       </c>
       <c r="P182">
         <v>0</v>
@@ -9702,7 +9702,7 @@
         <v>1.95</v>
       </c>
       <c r="O183">
-        <v>4988.921590909091</v>
+        <v>4988.921590909092</v>
       </c>
       <c r="P183">
         <v>0</v>
@@ -9902,7 +9902,7 @@
         <v>1.95</v>
       </c>
       <c r="O187">
-        <v>5000.950000000001</v>
+        <v>5000.95</v>
       </c>
       <c r="P187">
         <v>0</v>
@@ -10102,7 +10102,7 @@
         <v>2.25</v>
       </c>
       <c r="O191">
-        <v>5026.88409090909</v>
+        <v>5026.884090909091</v>
       </c>
       <c r="P191">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>1.67</v>
       </c>
       <c r="O193">
-        <v>5036.688636363637</v>
+        <v>5036.688636363636</v>
       </c>
       <c r="P193">
         <v>0</v>
@@ -10502,7 +10502,7 @@
         <v>1.39</v>
       </c>
       <c r="O199">
-        <v>5092.296590909092</v>
+        <v>5092.296590909091</v>
       </c>
       <c r="P199">
         <v>0</v>
@@ -10602,7 +10602,7 @@
         <v>1.55</v>
       </c>
       <c r="O201">
-        <v>5109.154545454546</v>
+        <v>5109.154545454545</v>
       </c>
       <c r="P201">
         <v>0</v>
@@ -10702,7 +10702,7 @@
         <v>3.12</v>
       </c>
       <c r="O203">
-        <v>5128.797727272728</v>
+        <v>5128.797727272727</v>
       </c>
       <c r="P203">
         <v>0</v>
@@ -10752,7 +10752,7 @@
         <v>2.83</v>
       </c>
       <c r="O204">
-        <v>5141.0125</v>
+        <v>5141.012500000001</v>
       </c>
       <c r="P204">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>2.35</v>
       </c>
       <c r="O207">
-        <v>5174.709090909091</v>
+        <v>5174.70909090909</v>
       </c>
       <c r="P207">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>1.43</v>
       </c>
       <c r="O208">
-        <v>5182.492045454545</v>
+        <v>5182.492045454546</v>
       </c>
       <c r="P208">
         <v>0</v>
@@ -11002,7 +11002,7 @@
         <v>2.43</v>
       </c>
       <c r="O209">
-        <v>5194.036363636364</v>
+        <v>5194.036363636363</v>
       </c>
       <c r="P209">
         <v>0</v>
@@ -11152,7 +11152,7 @@
         <v>1.53</v>
       </c>
       <c r="O212">
-        <v>5222.410227272727</v>
+        <v>5222.410227272728</v>
       </c>
       <c r="P212">
         <v>0</v>
@@ -11402,7 +11402,7 @@
         <v>4.15</v>
       </c>
       <c r="O217">
-        <v>5275.388636363637</v>
+        <v>5275.388636363636</v>
       </c>
       <c r="P217">
         <v>0</v>
@@ -11452,7 +11452,7 @@
         <v>5.02</v>
       </c>
       <c r="O218">
-        <v>5285.548863636364</v>
+        <v>5285.548863636363</v>
       </c>
       <c r="P218">
         <v>1</v>
@@ -11502,7 +11502,7 @@
         <v>1.57</v>
       </c>
       <c r="O219">
-        <v>5298.370454545455</v>
+        <v>5298.370454545454</v>
       </c>
       <c r="P219">
         <v>0</v>
@@ -11552,7 +11552,7 @@
         <v>2.14</v>
       </c>
       <c r="O220">
-        <v>5312.827272727272</v>
+        <v>5312.827272727273</v>
       </c>
       <c r="P220">
         <v>0</v>
@@ -11752,7 +11752,7 @@
         <v>1</v>
       </c>
       <c r="O224">
-        <v>5388.618181818182</v>
+        <v>5388.618181818181</v>
       </c>
       <c r="P224">
         <v>0</v>
@@ -12066,7 +12066,7 @@
         <v>1.63</v>
       </c>
       <c r="O228">
-        <v>5473.679545454546</v>
+        <v>5473.679545454545</v>
       </c>
       <c r="P228">
         <v>0</v>
@@ -12280,7 +12280,7 @@
         <v>3.06</v>
       </c>
       <c r="O230">
-        <v>5506.394318181819</v>
+        <v>5506.394318181818</v>
       </c>
       <c r="P230">
         <v>0</v>
@@ -12387,7 +12387,7 @@
         <v>1.69</v>
       </c>
       <c r="O231">
-        <v>5520.847727272727</v>
+        <v>5520.847727272728</v>
       </c>
       <c r="P231">
         <v>0</v>
@@ -12601,7 +12601,7 @@
         <v>3.05</v>
       </c>
       <c r="O233">
-        <v>5553.070454545455</v>
+        <v>5553.070454545454</v>
       </c>
       <c r="P233">
         <v>0</v>
@@ -12708,7 +12708,7 @@
         <v>2.06</v>
       </c>
       <c r="O234">
-        <v>5566.679545454545</v>
+        <v>5566.679545454546</v>
       </c>
       <c r="P234">
         <v>0</v>
@@ -12815,7 +12815,7 @@
         <v>2.35</v>
       </c>
       <c r="O235">
-        <v>5580.907954545454</v>
+        <v>5580.907954545455</v>
       </c>
       <c r="P235">
         <v>0</v>
@@ -12922,7 +12922,7 @@
         <v>2.54</v>
       </c>
       <c r="O236">
-        <v>5596.936363636364</v>
+        <v>5596.936363636363</v>
       </c>
       <c r="P236">
         <v>0</v>
@@ -13243,7 +13243,7 @@
         <v>0</v>
       </c>
       <c r="O239">
-        <v>5645.515909090909</v>
+        <v>5645.515909090908</v>
       </c>
       <c r="P239">
         <v>0</v>
@@ -13614,7 +13614,7 @@
         <v>2.76</v>
       </c>
       <c r="O243">
-        <v>5711.402272727272</v>
+        <v>5711.402272727273</v>
       </c>
       <c r="P243">
         <v>0</v>
@@ -13721,7 +13721,7 @@
         <v>1.64</v>
       </c>
       <c r="O244">
-        <v>5732.05</v>
+        <v>5732.049999999999</v>
       </c>
       <c r="P244">
         <v>0</v>
@@ -13828,7 +13828,7 @@
         <v>1.85</v>
       </c>
       <c r="O245">
-        <v>5754.4625</v>
+        <v>5754.462500000001</v>
       </c>
       <c r="P245">
         <v>0</v>
